--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,64 +67,64 @@
     <t>low</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>share</t>
@@ -751,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>40</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.8803418803418803</v>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.8636363636363636</v>
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.8503937007874016</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.847457627118644</v>
@@ -1033,7 +1033,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -1083,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.7643312101910829</v>
@@ -1133,7 +1133,7 @@
         <v>364</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.7128712871287128</v>
@@ -1183,7 +1183,7 @@
         <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.7111111111111111</v>
@@ -1233,7 +1233,7 @@
         <v>130</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.7092198581560284</v>
@@ -1262,49 +1262,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08552631578947369</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12">
+        <v>0.25</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>904</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>0.6777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>61</v>
+      </c>
+      <c r="M12">
+        <v>65</v>
+      </c>
+      <c r="N12">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F12">
+      <c r="O12">
         <v>0.06000000000000005</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>139</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>0.6810344827586207</v>
-      </c>
-      <c r="L12">
-        <v>158</v>
-      </c>
-      <c r="M12">
-        <v>165</v>
-      </c>
-      <c r="N12">
-        <v>0.96</v>
-      </c>
-      <c r="O12">
-        <v>0.04000000000000004</v>
-      </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,49 +1312,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01739130434782609</v>
+        <v>0.01388085598611914</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="E13">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>904</v>
+        <v>1705</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,28 +1362,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01388085598611914</v>
+        <v>0.01126760563380282</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>438</v>
+        <v>650</v>
       </c>
       <c r="E14">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F14">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1705</v>
+        <v>2457</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0.5977011494252874</v>
@@ -1412,28 +1412,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01126760563380282</v>
+        <v>0.0046982291290206</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>650</v>
+        <v>447</v>
       </c>
       <c r="E15">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F15">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2457</v>
+        <v>2754</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15">
         <v>0.5833333333333334</v>
@@ -1458,32 +1458,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.0046982291290206</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>447</v>
-      </c>
-      <c r="E16">
-        <v>0.97</v>
-      </c>
-      <c r="F16">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2754</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>0.5774278215223098</v>
@@ -1509,28 +1485,28 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.5749235474006116</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L17">
         <v>188</v>
       </c>
       <c r="M17">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -2653,7 +2629,7 @@
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61">
         <v>0.2020136407924651</v>
@@ -2757,7 +2733,7 @@
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K65">
         <v>0.195375176970269</v>
@@ -3277,7 +3253,7 @@
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K85">
         <v>0.1361355081555835</v>
@@ -3849,7 +3825,7 @@
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K107">
         <v>0.05042016806722689</v>
